--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Anual.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Anual.xlsx
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>258822</v>
+        <v>258835</v>
       </c>
     </row>
   </sheetData>
